--- a/gears_db/data/outputs/test_nigeria18_pivot.xlsx
+++ b/gears_db/data/outputs/test_nigeria18_pivot.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="175">
   <si>
     <t xml:space="preserve">Area</t>
   </si>
@@ -195,6 +195,9 @@
   </si>
   <si>
     <t xml:space="preserve">4661_Wholesale of solid, liquid and gaseous fuels and related products_1.B.1_Solid Fuels</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5110_Passenger air transport_5110_Passenger air transport</t>
   </si>
   <si>
     <t xml:space="preserve">9999_Undetermined_2.A.4_Other Process Uses of Carbonates</t>
@@ -1079,34 +1082,37 @@
       <c r="BS1" t="s">
         <v>70</v>
       </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B2" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C2" t="n">
         <v>2018</v>
       </c>
       <c r="D2" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E2" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F2" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G2" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H2" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J2"/>
       <c r="K2"/>
@@ -1168,40 +1174,41 @@
       <c r="BO2"/>
       <c r="BP2"/>
       <c r="BQ2"/>
-      <c r="BR2" t="n">
+      <c r="BR2"/>
+      <c r="BS2" t="n">
         <v>1.037232</v>
       </c>
-      <c r="BS2" t="n">
+      <c r="BT2" t="n">
         <v>1.037232</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B3" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C3" t="n">
         <v>2018</v>
       </c>
       <c r="D3" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E3" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F3" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G3" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H3" t="s">
+        <v>80</v>
+      </c>
+      <c r="I3" t="s">
         <v>79</v>
-      </c>
-      <c r="I3" t="s">
-        <v>78</v>
       </c>
       <c r="J3"/>
       <c r="K3"/>
@@ -1263,40 +1270,41 @@
       <c r="BO3"/>
       <c r="BP3"/>
       <c r="BQ3"/>
-      <c r="BR3" t="n">
+      <c r="BR3"/>
+      <c r="BS3" t="n">
         <v>1.308888</v>
       </c>
-      <c r="BS3" t="n">
+      <c r="BT3" t="n">
         <v>1.308888</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B4" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C4" t="n">
         <v>2018</v>
       </c>
       <c r="D4" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E4" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F4" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G4" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H4" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I4" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J4"/>
       <c r="K4"/>
@@ -1358,40 +1366,41 @@
       <c r="BO4"/>
       <c r="BP4"/>
       <c r="BQ4"/>
-      <c r="BR4" t="n">
+      <c r="BR4"/>
+      <c r="BS4" t="n">
         <v>216.186620328</v>
       </c>
-      <c r="BS4" t="n">
+      <c r="BT4" t="n">
         <v>216.186620328</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C5" t="n">
         <v>2018</v>
       </c>
       <c r="D5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E5" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F5" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H5" t="s">
         <v>80</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>79</v>
-      </c>
-      <c r="I5" t="s">
-        <v>78</v>
       </c>
       <c r="J5"/>
       <c r="K5"/>
@@ -1453,40 +1462,41 @@
       <c r="BO5"/>
       <c r="BP5"/>
       <c r="BQ5"/>
-      <c r="BR5" t="n">
+      <c r="BR5"/>
+      <c r="BS5" t="n">
         <v>40.9210388478</v>
       </c>
-      <c r="BS5" t="n">
+      <c r="BT5" t="n">
         <v>40.9210388478</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C6" t="n">
         <v>2018</v>
       </c>
       <c r="D6" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F6" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G6" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H6" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J6"/>
       <c r="K6"/>
@@ -1548,40 +1558,41 @@
       <c r="BO6"/>
       <c r="BP6"/>
       <c r="BQ6"/>
-      <c r="BR6" t="n">
+      <c r="BR6"/>
+      <c r="BS6" t="n">
         <v>1465.66492569</v>
       </c>
-      <c r="BS6" t="n">
+      <c r="BT6" t="n">
         <v>1465.66492569</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C7" t="n">
         <v>2018</v>
       </c>
       <c r="D7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J7"/>
       <c r="K7"/>
@@ -1643,40 +1654,41 @@
       <c r="BO7"/>
       <c r="BP7"/>
       <c r="BQ7"/>
-      <c r="BR7" t="n">
+      <c r="BR7"/>
+      <c r="BS7" t="n">
         <v>1.5906441054</v>
       </c>
-      <c r="BS7" t="n">
+      <c r="BT7" t="n">
         <v>1.5906441054</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B8" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C8" t="n">
         <v>2018</v>
       </c>
       <c r="D8" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E8" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F8" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H8" t="s">
+        <v>80</v>
+      </c>
+      <c r="I8" t="s">
         <v>79</v>
-      </c>
-      <c r="I8" t="s">
-        <v>78</v>
       </c>
       <c r="J8"/>
       <c r="K8"/>
@@ -1738,40 +1750,41 @@
       <c r="BO8"/>
       <c r="BP8"/>
       <c r="BQ8"/>
-      <c r="BR8" t="n">
+      <c r="BR8"/>
+      <c r="BS8" t="n">
         <v>3.01086205665</v>
       </c>
-      <c r="BS8" t="n">
+      <c r="BT8" t="n">
         <v>3.01086205665</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B9" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C9" t="n">
         <v>2018</v>
       </c>
       <c r="D9" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E9" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F9" t="s">
+        <v>84</v>
+      </c>
+      <c r="G9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H9" t="s">
         <v>83</v>
       </c>
-      <c r="G9" t="s">
-        <v>81</v>
-      </c>
-      <c r="H9" t="s">
-        <v>82</v>
-      </c>
       <c r="I9" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J9"/>
       <c r="K9"/>
@@ -1836,37 +1849,38 @@
       <c r="BP9"/>
       <c r="BQ9"/>
       <c r="BR9"/>
-      <c r="BS9" t="n">
+      <c r="BS9"/>
+      <c r="BT9" t="n">
         <v>543.306632022</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C10" t="n">
         <v>2018</v>
       </c>
       <c r="D10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J10"/>
       <c r="K10"/>
@@ -1931,37 +1945,38 @@
       <c r="BP10"/>
       <c r="BQ10"/>
       <c r="BR10"/>
-      <c r="BS10" t="n">
+      <c r="BS10"/>
+      <c r="BT10" t="n">
         <v>0.58963510452</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B11" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C11" t="n">
         <v>2018</v>
       </c>
       <c r="D11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="H11" t="s">
+        <v>80</v>
+      </c>
+      <c r="I11" t="s">
         <v>79</v>
-      </c>
-      <c r="I11" t="s">
-        <v>78</v>
       </c>
       <c r="J11"/>
       <c r="K11"/>
@@ -2026,37 +2041,38 @@
       <c r="BP11"/>
       <c r="BQ11"/>
       <c r="BR11"/>
-      <c r="BS11" t="n">
+      <c r="BS11"/>
+      <c r="BT11" t="n">
         <v>1.11609501927</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B12" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C12" t="n">
         <v>2018</v>
       </c>
       <c r="D12" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E12" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F12" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G12" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H12" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I12" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J12"/>
       <c r="K12"/>
@@ -2118,40 +2134,41 @@
       <c r="BO12"/>
       <c r="BP12"/>
       <c r="BQ12"/>
-      <c r="BR12" t="n">
+      <c r="BR12"/>
+      <c r="BS12" t="n">
         <v>651.939687725227</v>
       </c>
-      <c r="BS12" t="n">
+      <c r="BT12" t="n">
         <v>651.939687725227</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B13" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C13" t="n">
         <v>2018</v>
       </c>
       <c r="D13" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E13" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F13" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G13" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="H13" t="s">
+        <v>80</v>
+      </c>
+      <c r="I13" t="s">
         <v>79</v>
-      </c>
-      <c r="I13" t="s">
-        <v>78</v>
       </c>
       <c r="J13"/>
       <c r="K13"/>
@@ -2213,40 +2230,41 @@
       <c r="BO13"/>
       <c r="BP13"/>
       <c r="BQ13"/>
-      <c r="BR13" t="n">
+      <c r="BR13"/>
+      <c r="BS13" t="n">
         <v>822.685796415167</v>
       </c>
-      <c r="BS13" t="n">
+      <c r="BT13" t="n">
         <v>822.685796415167</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B14" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C14" t="n">
         <v>2018</v>
       </c>
       <c r="D14" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E14" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F14" t="s">
+        <v>86</v>
+      </c>
+      <c r="G14" t="s">
         <v>85</v>
       </c>
-      <c r="G14" t="s">
-        <v>84</v>
-      </c>
       <c r="H14" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I14" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J14"/>
       <c r="K14"/>
@@ -2311,37 +2329,38 @@
       <c r="BP14"/>
       <c r="BQ14"/>
       <c r="BR14"/>
-      <c r="BS14" t="n">
+      <c r="BS14"/>
+      <c r="BT14" t="n">
         <v>190.741515807528</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B15" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C15" t="n">
         <v>2018</v>
       </c>
       <c r="D15" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E15" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F15" t="s">
+        <v>86</v>
+      </c>
+      <c r="G15" t="s">
         <v>85</v>
       </c>
-      <c r="G15" t="s">
-        <v>84</v>
-      </c>
       <c r="H15" t="s">
+        <v>80</v>
+      </c>
+      <c r="I15" t="s">
         <v>79</v>
-      </c>
-      <c r="I15" t="s">
-        <v>78</v>
       </c>
       <c r="J15"/>
       <c r="K15"/>
@@ -2406,37 +2425,38 @@
       <c r="BP15"/>
       <c r="BQ15"/>
       <c r="BR15"/>
-      <c r="BS15" t="n">
+      <c r="BS15"/>
+      <c r="BT15" t="n">
         <v>240.697627090452</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B16" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C16" t="n">
         <v>2018</v>
       </c>
       <c r="D16" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E16" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F16" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G16" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H16" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I16" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J16"/>
       <c r="K16"/>
@@ -2498,40 +2518,41 @@
       <c r="BO16"/>
       <c r="BP16"/>
       <c r="BQ16"/>
-      <c r="BR16" t="n">
+      <c r="BR16"/>
+      <c r="BS16" t="n">
         <v>12249.52120275</v>
       </c>
-      <c r="BS16" t="n">
+      <c r="BT16" t="n">
         <v>12249.52120275</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B17" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C17" t="n">
         <v>2018</v>
       </c>
       <c r="D17" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E17" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F17" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G17" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H17" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I17" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J17"/>
       <c r="K17"/>
@@ -2593,40 +2614,41 @@
       <c r="BO17"/>
       <c r="BP17"/>
       <c r="BQ17"/>
-      <c r="BR17" t="n">
+      <c r="BR17"/>
+      <c r="BS17" t="n">
         <v>13.88609691</v>
       </c>
-      <c r="BS17" t="n">
+      <c r="BT17" t="n">
         <v>13.88609691</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B18" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C18" t="n">
         <v>2018</v>
       </c>
       <c r="D18" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E18" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F18" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G18" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H18" t="s">
+        <v>80</v>
+      </c>
+      <c r="I18" t="s">
         <v>79</v>
-      </c>
-      <c r="I18" t="s">
-        <v>78</v>
       </c>
       <c r="J18"/>
       <c r="K18"/>
@@ -2688,40 +2710,41 @@
       <c r="BO18"/>
       <c r="BP18"/>
       <c r="BQ18"/>
-      <c r="BR18" t="n">
+      <c r="BR18"/>
+      <c r="BS18" t="n">
         <v>26.2843977225</v>
       </c>
-      <c r="BS18" t="n">
+      <c r="BT18" t="n">
         <v>26.2843977225</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B19" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C19" t="n">
         <v>2018</v>
       </c>
       <c r="D19" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E19" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F19" t="s">
+        <v>84</v>
+      </c>
+      <c r="G19" t="s">
+        <v>87</v>
+      </c>
+      <c r="H19" t="s">
         <v>83</v>
       </c>
-      <c r="G19" t="s">
-        <v>86</v>
-      </c>
-      <c r="H19" t="s">
-        <v>82</v>
-      </c>
       <c r="I19" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J19"/>
       <c r="K19"/>
@@ -2786,37 +2809,38 @@
       <c r="BP19"/>
       <c r="BQ19"/>
       <c r="BR19"/>
-      <c r="BS19" t="n">
+      <c r="BS19"/>
+      <c r="BT19" t="n">
         <v>62.5378065</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B20" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C20" t="n">
         <v>2018</v>
       </c>
       <c r="D20" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E20" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F20" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G20" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H20" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I20" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J20"/>
       <c r="K20"/>
@@ -2881,37 +2905,38 @@
       <c r="BP20"/>
       <c r="BQ20"/>
       <c r="BR20"/>
-      <c r="BS20" t="n">
+      <c r="BS20"/>
+      <c r="BT20" t="n">
         <v>0.07089306</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B21" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C21" t="n">
         <v>2018</v>
       </c>
       <c r="D21" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E21" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F21" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G21" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H21" t="s">
+        <v>80</v>
+      </c>
+      <c r="I21" t="s">
         <v>79</v>
-      </c>
-      <c r="I21" t="s">
-        <v>78</v>
       </c>
       <c r="J21"/>
       <c r="K21"/>
@@ -2976,37 +3001,38 @@
       <c r="BP21"/>
       <c r="BQ21"/>
       <c r="BR21"/>
-      <c r="BS21" t="n">
+      <c r="BS21"/>
+      <c r="BT21" t="n">
         <v>0.134190435</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B22" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C22" t="n">
         <v>2018</v>
       </c>
       <c r="D22" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E22" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F22" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G22" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H22" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I22" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J22"/>
       <c r="K22"/>
@@ -3068,40 +3094,41 @@
       <c r="BO22"/>
       <c r="BP22"/>
       <c r="BQ22"/>
-      <c r="BR22" t="n">
+      <c r="BR22"/>
+      <c r="BS22" t="n">
         <v>1513.247522913</v>
       </c>
-      <c r="BS22" t="n">
+      <c r="BT22" t="n">
         <v>1513.247522913</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B23" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C23" t="n">
         <v>2018</v>
       </c>
       <c r="D23" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E23" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F23" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G23" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H23" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I23" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J23"/>
       <c r="K23"/>
@@ -3163,40 +3190,41 @@
       <c r="BO23"/>
       <c r="BP23"/>
       <c r="BQ23"/>
-      <c r="BR23" t="n">
+      <c r="BR23"/>
+      <c r="BS23" t="n">
         <v>0.44090458524</v>
       </c>
-      <c r="BS23" t="n">
+      <c r="BT23" t="n">
         <v>0.44090458524</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B24" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C24" t="n">
         <v>2018</v>
       </c>
       <c r="D24" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E24" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F24" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G24" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="H24" t="s">
+        <v>80</v>
+      </c>
+      <c r="I24" t="s">
         <v>79</v>
-      </c>
-      <c r="I24" t="s">
-        <v>78</v>
       </c>
       <c r="J24"/>
       <c r="K24"/>
@@ -3258,40 +3286,41 @@
       <c r="BO24"/>
       <c r="BP24"/>
       <c r="BQ24"/>
-      <c r="BR24" t="n">
+      <c r="BR24"/>
+      <c r="BS24" t="n">
         <v>6.259270451175</v>
       </c>
-      <c r="BS24" t="n">
+      <c r="BT24" t="n">
         <v>6.259270451175</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B25" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C25" t="n">
         <v>2018</v>
       </c>
       <c r="D25" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E25" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F25" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G25" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H25" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I25" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J25"/>
       <c r="K25"/>
@@ -3345,7 +3374,9 @@
       <c r="BG25"/>
       <c r="BH25"/>
       <c r="BI25"/>
-      <c r="BJ25"/>
+      <c r="BJ25" t="n">
+        <v>607.908418975</v>
+      </c>
       <c r="BK25"/>
       <c r="BL25"/>
       <c r="BM25"/>
@@ -3353,40 +3384,39 @@
       <c r="BO25"/>
       <c r="BP25"/>
       <c r="BQ25"/>
-      <c r="BR25" t="n">
-        <v>607.908418975</v>
-      </c>
-      <c r="BS25" t="n">
+      <c r="BR25"/>
+      <c r="BS25"/>
+      <c r="BT25" t="n">
         <v>607.908418975</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B26" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C26" t="n">
         <v>2018</v>
       </c>
       <c r="D26" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E26" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G26" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H26" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I26" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J26"/>
       <c r="K26"/>
@@ -3440,7 +3470,9 @@
       <c r="BG26"/>
       <c r="BH26"/>
       <c r="BI26"/>
-      <c r="BJ26"/>
+      <c r="BJ26" t="n">
+        <v>0.7141861146</v>
+      </c>
       <c r="BK26"/>
       <c r="BL26"/>
       <c r="BM26"/>
@@ -3448,40 +3480,39 @@
       <c r="BO26"/>
       <c r="BP26"/>
       <c r="BQ26"/>
-      <c r="BR26" t="n">
-        <v>0.7141861146</v>
-      </c>
-      <c r="BS26" t="n">
+      <c r="BR26"/>
+      <c r="BS26"/>
+      <c r="BT26" t="n">
         <v>0.7141861146</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B27" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C27" t="n">
         <v>2018</v>
       </c>
       <c r="D27" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E27" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F27" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G27" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="H27" t="s">
+        <v>80</v>
+      </c>
+      <c r="I27" t="s">
         <v>79</v>
-      </c>
-      <c r="I27" t="s">
-        <v>78</v>
       </c>
       <c r="J27"/>
       <c r="K27"/>
@@ -3535,7 +3566,9 @@
       <c r="BG27"/>
       <c r="BH27"/>
       <c r="BI27"/>
-      <c r="BJ27"/>
+      <c r="BJ27" t="n">
+        <v>1.35185228835</v>
+      </c>
       <c r="BK27"/>
       <c r="BL27"/>
       <c r="BM27"/>
@@ -3543,40 +3576,39 @@
       <c r="BO27"/>
       <c r="BP27"/>
       <c r="BQ27"/>
-      <c r="BR27" t="n">
-        <v>1.35185228835</v>
-      </c>
-      <c r="BS27" t="n">
+      <c r="BR27"/>
+      <c r="BS27"/>
+      <c r="BT27" t="n">
         <v>1.35185228835</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B28" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C28" t="n">
         <v>2018</v>
       </c>
       <c r="D28" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E28" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F28" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G28" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H28" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I28" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J28"/>
       <c r="K28"/>
@@ -3638,40 +3670,41 @@
       <c r="BO28"/>
       <c r="BP28"/>
       <c r="BQ28"/>
-      <c r="BR28" t="n">
+      <c r="BR28"/>
+      <c r="BS28" t="n">
         <v>475.402129615</v>
       </c>
-      <c r="BS28" t="n">
+      <c r="BT28" t="n">
         <v>475.402129615</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B29" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C29" t="n">
         <v>2018</v>
       </c>
       <c r="D29" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E29" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F29" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G29" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H29" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I29" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J29"/>
       <c r="K29"/>
@@ -3733,40 +3766,41 @@
       <c r="BO29"/>
       <c r="BP29"/>
       <c r="BQ29"/>
-      <c r="BR29" t="n">
+      <c r="BR29"/>
+      <c r="BS29" t="n">
         <v>0.2109549862</v>
       </c>
-      <c r="BS29" t="n">
+      <c r="BT29" t="n">
         <v>0.2109549862</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B30" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C30" t="n">
         <v>2018</v>
       </c>
       <c r="D30" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E30" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F30" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G30" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H30" t="s">
+        <v>80</v>
+      </c>
+      <c r="I30" t="s">
         <v>79</v>
-      </c>
-      <c r="I30" t="s">
-        <v>78</v>
       </c>
       <c r="J30"/>
       <c r="K30"/>
@@ -3828,40 +3862,41 @@
       <c r="BO30"/>
       <c r="BP30"/>
       <c r="BQ30"/>
-      <c r="BR30" t="n">
+      <c r="BR30"/>
+      <c r="BS30" t="n">
         <v>0.199653826225</v>
       </c>
-      <c r="BS30" t="n">
+      <c r="BT30" t="n">
         <v>0.199653826225</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B31" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C31" t="n">
         <v>2018</v>
       </c>
       <c r="D31" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E31" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F31" t="s">
+        <v>84</v>
+      </c>
+      <c r="G31" t="s">
+        <v>90</v>
+      </c>
+      <c r="H31" t="s">
         <v>83</v>
       </c>
-      <c r="G31" t="s">
-        <v>89</v>
-      </c>
-      <c r="H31" t="s">
-        <v>82</v>
-      </c>
       <c r="I31" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J31"/>
       <c r="K31"/>
@@ -3926,37 +3961,38 @@
       <c r="BP31"/>
       <c r="BQ31"/>
       <c r="BR31"/>
-      <c r="BS31" t="n">
+      <c r="BS31"/>
+      <c r="BT31" t="n">
         <v>42.69918948</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B32" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C32" t="n">
         <v>2018</v>
       </c>
       <c r="D32" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E32" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F32" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G32" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H32" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I32" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J32"/>
       <c r="K32"/>
@@ -4021,37 +4057,38 @@
       <c r="BP32"/>
       <c r="BQ32"/>
       <c r="BR32"/>
-      <c r="BS32" t="n">
+      <c r="BS32"/>
+      <c r="BT32" t="n">
         <v>0.0189473424</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B33" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C33" t="n">
         <v>2018</v>
       </c>
       <c r="D33" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E33" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F33" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G33" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="H33" t="s">
+        <v>80</v>
+      </c>
+      <c r="I33" t="s">
         <v>79</v>
-      </c>
-      <c r="I33" t="s">
-        <v>78</v>
       </c>
       <c r="J33"/>
       <c r="K33"/>
@@ -4116,37 +4153,38 @@
       <c r="BP33"/>
       <c r="BQ33"/>
       <c r="BR33"/>
-      <c r="BS33" t="n">
+      <c r="BS33"/>
+      <c r="BT33" t="n">
         <v>0.0179323062</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B34" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C34" t="n">
         <v>2018</v>
       </c>
       <c r="D34" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E34" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F34" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G34" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H34" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I34" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J34"/>
       <c r="K34"/>
@@ -4208,40 +4246,41 @@
       <c r="BO34"/>
       <c r="BP34"/>
       <c r="BQ34"/>
-      <c r="BR34" t="n">
+      <c r="BR34"/>
+      <c r="BS34" t="n">
         <v>41136.624086481</v>
       </c>
-      <c r="BS34" t="n">
+      <c r="BT34" t="n">
         <v>41136.624086481</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B35" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C35" t="n">
         <v>2018</v>
       </c>
       <c r="D35" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E35" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F35" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G35" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H35" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I35" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J35"/>
       <c r="K35"/>
@@ -4303,40 +4342,41 @@
       <c r="BO35"/>
       <c r="BP35"/>
       <c r="BQ35"/>
-      <c r="BR35" t="n">
+      <c r="BR35"/>
+      <c r="BS35" t="n">
         <v>49.86257465028</v>
       </c>
-      <c r="BS35" t="n">
+      <c r="BT35" t="n">
         <v>49.86257465028</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B36" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C36" t="n">
         <v>2018</v>
       </c>
       <c r="D36" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E36" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F36" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G36" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="H36" t="s">
+        <v>80</v>
+      </c>
+      <c r="I36" t="s">
         <v>79</v>
-      </c>
-      <c r="I36" t="s">
-        <v>78</v>
       </c>
       <c r="J36"/>
       <c r="K36"/>
@@ -4398,40 +4438,41 @@
       <c r="BO36"/>
       <c r="BP36"/>
       <c r="BQ36"/>
-      <c r="BR36" t="n">
+      <c r="BR36"/>
+      <c r="BS36" t="n">
         <v>94.38273058803</v>
       </c>
-      <c r="BS36" t="n">
+      <c r="BT36" t="n">
         <v>94.38273058803</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B37" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C37" t="n">
         <v>2018</v>
       </c>
       <c r="D37" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E37" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F37" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G37" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H37" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I37" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J37"/>
       <c r="K37"/>
@@ -4493,40 +4534,41 @@
       <c r="BO37"/>
       <c r="BP37"/>
       <c r="BQ37"/>
-      <c r="BR37" t="n">
+      <c r="BR37"/>
+      <c r="BS37" t="n">
         <v>6224.3516049</v>
       </c>
-      <c r="BS37" t="n">
+      <c r="BT37" t="n">
         <v>6224.3516049</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B38" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C38" t="n">
         <v>2018</v>
       </c>
       <c r="D38" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E38" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F38" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G38" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H38" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I38" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J38"/>
       <c r="K38"/>
@@ -4588,40 +4630,41 @@
       <c r="BO38"/>
       <c r="BP38"/>
       <c r="BQ38"/>
-      <c r="BR38" t="n">
+      <c r="BR38"/>
+      <c r="BS38" t="n">
         <v>3.106628252</v>
       </c>
-      <c r="BS38" t="n">
+      <c r="BT38" t="n">
         <v>3.106628252</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B39" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C39" t="n">
         <v>2018</v>
       </c>
       <c r="D39" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E39" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F39" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G39" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H39" t="s">
+        <v>80</v>
+      </c>
+      <c r="I39" t="s">
         <v>79</v>
-      </c>
-      <c r="I39" t="s">
-        <v>78</v>
       </c>
       <c r="J39"/>
       <c r="K39"/>
@@ -4683,40 +4726,41 @@
       <c r="BO39"/>
       <c r="BP39"/>
       <c r="BQ39"/>
-      <c r="BR39" t="n">
+      <c r="BR39"/>
+      <c r="BS39" t="n">
         <v>2.9402017385</v>
       </c>
-      <c r="BS39" t="n">
+      <c r="BT39" t="n">
         <v>2.9402017385</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B40" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C40" t="n">
         <v>2018</v>
       </c>
       <c r="D40" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E40" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F40" t="s">
+        <v>93</v>
+      </c>
+      <c r="G40" t="s">
         <v>92</v>
       </c>
-      <c r="G40" t="s">
-        <v>91</v>
-      </c>
       <c r="H40" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I40" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J40"/>
       <c r="K40"/>
@@ -4781,37 +4825,38 @@
       <c r="BP40"/>
       <c r="BQ40"/>
       <c r="BR40"/>
-      <c r="BS40" t="n">
+      <c r="BS40"/>
+      <c r="BT40" t="n">
         <v>4609.6202559</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B41" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C41" t="n">
         <v>2018</v>
       </c>
       <c r="D41" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E41" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F41" t="s">
+        <v>93</v>
+      </c>
+      <c r="G41" t="s">
         <v>92</v>
       </c>
-      <c r="G41" t="s">
-        <v>91</v>
-      </c>
       <c r="H41" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I41" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J41"/>
       <c r="K41"/>
@@ -4876,37 +4921,38 @@
       <c r="BP41"/>
       <c r="BQ41"/>
       <c r="BR41"/>
-      <c r="BS41" t="n">
+      <c r="BS41"/>
+      <c r="BT41" t="n">
         <v>2.300701732</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B42" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C42" t="n">
         <v>2018</v>
       </c>
       <c r="D42" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E42" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F42" t="s">
+        <v>93</v>
+      </c>
+      <c r="G42" t="s">
         <v>92</v>
       </c>
-      <c r="G42" t="s">
-        <v>91</v>
-      </c>
       <c r="H42" t="s">
+        <v>80</v>
+      </c>
+      <c r="I42" t="s">
         <v>79</v>
-      </c>
-      <c r="I42" t="s">
-        <v>78</v>
       </c>
       <c r="J42"/>
       <c r="K42"/>
@@ -4971,37 +5017,38 @@
       <c r="BP42"/>
       <c r="BQ42"/>
       <c r="BR42"/>
-      <c r="BS42" t="n">
+      <c r="BS42"/>
+      <c r="BT42" t="n">
         <v>2.1774498535</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B43" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C43" t="n">
         <v>2018</v>
       </c>
       <c r="D43" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E43" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F43" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G43" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H43" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I43" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J43"/>
       <c r="K43"/>
@@ -5066,37 +5113,38 @@
       <c r="BP43"/>
       <c r="BQ43"/>
       <c r="BR43"/>
-      <c r="BS43" t="n">
+      <c r="BS43"/>
+      <c r="BT43" t="n">
         <v>8018.2895232</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B44" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C44" t="n">
         <v>2018</v>
       </c>
       <c r="D44" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E44" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F44" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G44" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H44" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I44" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J44"/>
       <c r="K44"/>
@@ -5161,37 +5209,38 @@
       <c r="BP44"/>
       <c r="BQ44"/>
       <c r="BR44"/>
-      <c r="BS44" t="n">
+      <c r="BS44"/>
+      <c r="BT44" t="n">
         <v>4.001998336</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B45" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C45" t="n">
         <v>2018</v>
       </c>
       <c r="D45" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E45" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F45" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G45" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H45" t="s">
+        <v>80</v>
+      </c>
+      <c r="I45" t="s">
         <v>79</v>
-      </c>
-      <c r="I45" t="s">
-        <v>78</v>
       </c>
       <c r="J45"/>
       <c r="K45"/>
@@ -5256,37 +5305,38 @@
       <c r="BP45"/>
       <c r="BQ45"/>
       <c r="BR45"/>
-      <c r="BS45" t="n">
+      <c r="BS45"/>
+      <c r="BT45" t="n">
         <v>3.787605568</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B46" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C46" t="n">
         <v>2018</v>
       </c>
       <c r="D46" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E46" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F46" t="s">
+        <v>84</v>
+      </c>
+      <c r="G46" t="s">
+        <v>92</v>
+      </c>
+      <c r="H46" t="s">
         <v>83</v>
       </c>
-      <c r="G46" t="s">
-        <v>91</v>
-      </c>
-      <c r="H46" t="s">
-        <v>82</v>
-      </c>
       <c r="I46" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J46"/>
       <c r="K46"/>
@@ -5351,37 +5401,38 @@
       <c r="BP46"/>
       <c r="BQ46"/>
       <c r="BR46"/>
-      <c r="BS46" t="n">
+      <c r="BS46"/>
+      <c r="BT46" t="n">
         <v>253.0902132</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B47" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C47" t="n">
         <v>2018</v>
       </c>
       <c r="D47" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E47" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F47" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G47" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H47" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I47" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J47"/>
       <c r="K47"/>
@@ -5446,37 +5497,38 @@
       <c r="BP47"/>
       <c r="BQ47"/>
       <c r="BR47"/>
-      <c r="BS47" t="n">
+      <c r="BS47"/>
+      <c r="BT47" t="n">
         <v>0.126319536</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B48" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C48" t="n">
         <v>2018</v>
       </c>
       <c r="D48" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E48" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F48" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G48" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H48" t="s">
+        <v>80</v>
+      </c>
+      <c r="I48" t="s">
         <v>79</v>
-      </c>
-      <c r="I48" t="s">
-        <v>78</v>
       </c>
       <c r="J48"/>
       <c r="K48"/>
@@ -5541,37 +5593,38 @@
       <c r="BP48"/>
       <c r="BQ48"/>
       <c r="BR48"/>
-      <c r="BS48" t="n">
+      <c r="BS48"/>
+      <c r="BT48" t="n">
         <v>0.119552418</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B49" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C49" t="n">
         <v>2018</v>
       </c>
       <c r="D49" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E49" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F49" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G49" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H49" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I49" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J49"/>
       <c r="K49"/>
@@ -5636,37 +5689,38 @@
       <c r="BP49"/>
       <c r="BQ49"/>
       <c r="BR49"/>
-      <c r="BS49" t="n">
+      <c r="BS49"/>
+      <c r="BT49" t="n">
         <v>15070.0596915</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B50" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C50" t="n">
         <v>2018</v>
       </c>
       <c r="D50" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E50" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F50" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G50" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H50" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I50" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J50"/>
       <c r="K50"/>
@@ -5731,37 +5785,38 @@
       <c r="BP50"/>
       <c r="BQ50"/>
       <c r="BR50"/>
-      <c r="BS50" t="n">
+      <c r="BS50"/>
+      <c r="BT50" t="n">
         <v>7.52159842</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B51" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C51" t="n">
         <v>2018</v>
       </c>
       <c r="D51" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E51" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F51" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="G51" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H51" t="s">
+        <v>80</v>
+      </c>
+      <c r="I51" t="s">
         <v>79</v>
-      </c>
-      <c r="I51" t="s">
-        <v>78</v>
       </c>
       <c r="J51"/>
       <c r="K51"/>
@@ -5826,37 +5881,38 @@
       <c r="BP51"/>
       <c r="BQ51"/>
       <c r="BR51"/>
-      <c r="BS51" t="n">
+      <c r="BS51"/>
+      <c r="BT51" t="n">
         <v>7.1186556475</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B52" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C52" t="n">
         <v>2018</v>
       </c>
       <c r="D52" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E52" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F52" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G52" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H52" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I52" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J52"/>
       <c r="K52"/>
@@ -5921,37 +5977,38 @@
       <c r="BP52"/>
       <c r="BQ52"/>
       <c r="BR52"/>
-      <c r="BS52" t="n">
+      <c r="BS52"/>
+      <c r="BT52" t="n">
         <v>1148.1831603</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B53" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C53" t="n">
         <v>2018</v>
       </c>
       <c r="D53" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E53" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F53" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G53" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H53" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I53" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J53"/>
       <c r="K53"/>
@@ -6016,37 +6073,38 @@
       <c r="BP53"/>
       <c r="BQ53"/>
       <c r="BR53"/>
-      <c r="BS53" t="n">
+      <c r="BS53"/>
+      <c r="BT53" t="n">
         <v>0.573068244</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B54" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C54" t="n">
         <v>2018</v>
       </c>
       <c r="D54" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E54" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F54" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="G54" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="H54" t="s">
+        <v>80</v>
+      </c>
+      <c r="I54" t="s">
         <v>79</v>
-      </c>
-      <c r="I54" t="s">
-        <v>78</v>
       </c>
       <c r="J54"/>
       <c r="K54"/>
@@ -6111,37 +6169,38 @@
       <c r="BP54"/>
       <c r="BQ54"/>
       <c r="BR54"/>
-      <c r="BS54" t="n">
+      <c r="BS54"/>
+      <c r="BT54" t="n">
         <v>0.5423681595</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B55" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C55" t="n">
         <v>2018</v>
       </c>
       <c r="D55" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E55" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F55" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G55" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H55" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I55" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J55"/>
       <c r="K55"/>
@@ -6203,40 +6262,41 @@
       <c r="BO55"/>
       <c r="BP55"/>
       <c r="BQ55"/>
-      <c r="BR55" t="n">
+      <c r="BR55"/>
+      <c r="BS55" t="n">
         <v>1489.627634418</v>
       </c>
-      <c r="BS55" t="n">
+      <c r="BT55" t="n">
         <v>1489.627634418</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B56" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C56" t="n">
         <v>2018</v>
       </c>
       <c r="D56" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E56" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F56" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G56" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H56" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I56" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J56"/>
       <c r="K56"/>
@@ -6298,40 +6358,41 @@
       <c r="BO56"/>
       <c r="BP56"/>
       <c r="BQ56"/>
-      <c r="BR56" t="n">
+      <c r="BR56"/>
+      <c r="BS56" t="n">
         <v>0.44090458524</v>
       </c>
-      <c r="BS56" t="n">
+      <c r="BT56" t="n">
         <v>0.44090458524</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B57" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C57" t="n">
         <v>2018</v>
       </c>
       <c r="D57" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E57" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F57" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G57" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="H57" t="s">
+        <v>80</v>
+      </c>
+      <c r="I57" t="s">
         <v>79</v>
-      </c>
-      <c r="I57" t="s">
-        <v>78</v>
       </c>
       <c r="J57"/>
       <c r="K57"/>
@@ -6393,40 +6454,41 @@
       <c r="BO57"/>
       <c r="BP57"/>
       <c r="BQ57"/>
-      <c r="BR57" t="n">
+      <c r="BR57"/>
+      <c r="BS57" t="n">
         <v>6.259270451175</v>
       </c>
-      <c r="BS57" t="n">
+      <c r="BT57" t="n">
         <v>6.259270451175</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B58" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C58" t="n">
         <v>2018</v>
       </c>
       <c r="D58" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E58" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F58" t="s">
+        <v>84</v>
+      </c>
+      <c r="G58" t="s">
+        <v>98</v>
+      </c>
+      <c r="H58" t="s">
         <v>83</v>
       </c>
-      <c r="G58" t="s">
-        <v>97</v>
-      </c>
-      <c r="H58" t="s">
-        <v>82</v>
-      </c>
       <c r="I58" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J58"/>
       <c r="K58"/>
@@ -6491,37 +6553,38 @@
       <c r="BP58"/>
       <c r="BQ58"/>
       <c r="BR58"/>
-      <c r="BS58" t="n">
+      <c r="BS58"/>
+      <c r="BT58" t="n">
         <v>22.991947875</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B59" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C59" t="n">
         <v>2018</v>
       </c>
       <c r="D59" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E59" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F59" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G59" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H59" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I59" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J59"/>
       <c r="K59"/>
@@ -6586,37 +6649,38 @@
       <c r="BP59"/>
       <c r="BQ59"/>
       <c r="BR59"/>
-      <c r="BS59" t="n">
+      <c r="BS59"/>
+      <c r="BT59" t="n">
         <v>0.0198084474</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B60" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C60" t="n">
         <v>2018</v>
       </c>
       <c r="D60" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E60" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F60" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G60" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="H60" t="s">
+        <v>80</v>
+      </c>
+      <c r="I60" t="s">
         <v>79</v>
-      </c>
-      <c r="I60" t="s">
-        <v>78</v>
       </c>
       <c r="J60"/>
       <c r="K60"/>
@@ -6681,37 +6745,38 @@
       <c r="BP60"/>
       <c r="BQ60"/>
       <c r="BR60"/>
-      <c r="BS60" t="n">
+      <c r="BS60"/>
+      <c r="BT60" t="n">
         <v>0.03749456115</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B61" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C61" t="n">
         <v>2018</v>
       </c>
       <c r="D61" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E61" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F61" t="s">
+        <v>84</v>
+      </c>
+      <c r="G61" t="s">
+        <v>99</v>
+      </c>
+      <c r="H61" t="s">
         <v>83</v>
       </c>
-      <c r="G61" t="s">
-        <v>98</v>
-      </c>
-      <c r="H61" t="s">
-        <v>82</v>
-      </c>
       <c r="I61" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J61"/>
       <c r="K61"/>
@@ -6776,37 +6841,38 @@
       <c r="BP61"/>
       <c r="BQ61"/>
       <c r="BR61"/>
-      <c r="BS61" t="n">
+      <c r="BS61"/>
+      <c r="BT61" t="n">
         <v>71.36811072</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B62" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C62" t="n">
         <v>2018</v>
       </c>
       <c r="D62" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E62" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F62" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G62" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H62" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I62" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J62"/>
       <c r="K62"/>
@@ -6871,37 +6937,38 @@
       <c r="BP62"/>
       <c r="BQ62"/>
       <c r="BR62"/>
-      <c r="BS62" t="n">
+      <c r="BS62"/>
+      <c r="BT62" t="n">
         <v>0.0346928316</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B63" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C63" t="n">
         <v>2018</v>
       </c>
       <c r="D63" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E63" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F63" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G63" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="H63" t="s">
+        <v>80</v>
+      </c>
+      <c r="I63" t="s">
         <v>79</v>
-      </c>
-      <c r="I63" t="s">
-        <v>78</v>
       </c>
       <c r="J63"/>
       <c r="K63"/>
@@ -6966,37 +7033,38 @@
       <c r="BP63"/>
       <c r="BQ63"/>
       <c r="BR63"/>
-      <c r="BS63" t="n">
+      <c r="BS63"/>
+      <c r="BT63" t="n">
         <v>0.03283428705</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B64" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C64" t="n">
         <v>2018</v>
       </c>
       <c r="D64" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E64" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F64" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G64" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H64" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I64" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J64"/>
       <c r="K64"/>
@@ -7061,37 +7129,38 @@
       <c r="BP64"/>
       <c r="BQ64"/>
       <c r="BR64"/>
-      <c r="BS64" t="n">
+      <c r="BS64"/>
+      <c r="BT64" t="n">
         <v>13.967598995035</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B65" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C65" t="n">
         <v>2018</v>
       </c>
       <c r="D65" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E65" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F65" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G65" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H65" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="I65" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J65"/>
       <c r="K65"/>
@@ -7156,37 +7225,38 @@
       <c r="BP65"/>
       <c r="BQ65"/>
       <c r="BR65"/>
-      <c r="BS65" t="n">
+      <c r="BS65"/>
+      <c r="BT65" t="n">
         <v>36371.48732</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B66" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C66" t="n">
         <v>2018</v>
       </c>
       <c r="D66" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E66" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F66" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G66" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H66" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I66" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J66"/>
       <c r="K66"/>
@@ -7251,37 +7321,38 @@
       <c r="BP66"/>
       <c r="BQ66"/>
       <c r="BR66"/>
-      <c r="BS66" t="n">
+      <c r="BS66"/>
+      <c r="BT66" t="n">
         <v>11604.089555057</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B67" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C67" t="n">
         <v>2018</v>
       </c>
       <c r="D67" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="E67" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F67" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G67" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H67" t="s">
+        <v>80</v>
+      </c>
+      <c r="I67" t="s">
         <v>79</v>
-      </c>
-      <c r="I67" t="s">
-        <v>78</v>
       </c>
       <c r="J67"/>
       <c r="K67"/>
@@ -7346,37 +7417,38 @@
       <c r="BP67"/>
       <c r="BQ67"/>
       <c r="BR67"/>
-      <c r="BS67" t="n">
+      <c r="BS67"/>
+      <c r="BT67" t="n">
         <v>140.56064757</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B68" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C68" t="n">
         <v>2018</v>
       </c>
       <c r="D68" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E68" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F68" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G68" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H68" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I68" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J68"/>
       <c r="K68"/>
@@ -7441,37 +7513,38 @@
       <c r="BP68"/>
       <c r="BQ68"/>
       <c r="BR68"/>
-      <c r="BS68" t="n">
+      <c r="BS68"/>
+      <c r="BT68" t="n">
         <v>15596.944439247</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C69" t="n">
         <v>2018</v>
       </c>
       <c r="D69" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E69" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F69" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G69" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H69" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I69" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J69"/>
       <c r="K69"/>
@@ -7536,37 +7609,38 @@
       <c r="BP69"/>
       <c r="BQ69"/>
       <c r="BR69"/>
-      <c r="BS69" t="n">
+      <c r="BS69"/>
+      <c r="BT69" t="n">
         <v>92928.2661179208</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B70" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C70" t="n">
         <v>2018</v>
       </c>
       <c r="D70" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="E70" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F70" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="G70" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H70" t="s">
+        <v>80</v>
+      </c>
+      <c r="I70" t="s">
         <v>79</v>
-      </c>
-      <c r="I70" t="s">
-        <v>78</v>
       </c>
       <c r="J70"/>
       <c r="K70"/>
@@ -7631,37 +7705,38 @@
       <c r="BP70"/>
       <c r="BQ70"/>
       <c r="BR70"/>
-      <c r="BS70" t="n">
+      <c r="BS70"/>
+      <c r="BT70" t="n">
         <v>57.3251271197975</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B71" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C71" t="n">
         <v>2018</v>
       </c>
       <c r="D71" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E71" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F71" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G71" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H71" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I71" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J71"/>
       <c r="K71"/>
@@ -7726,37 +7801,38 @@
       <c r="BP71"/>
       <c r="BQ71"/>
       <c r="BR71"/>
-      <c r="BS71" t="n">
+      <c r="BS71"/>
+      <c r="BT71" t="n">
         <v>8747.606714</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B72" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C72" t="n">
         <v>2018</v>
       </c>
       <c r="D72" t="s">
+        <v>110</v>
+      </c>
+      <c r="E72" t="s">
+        <v>111</v>
+      </c>
+      <c r="F72" t="s">
         <v>109</v>
       </c>
-      <c r="E72" t="s">
-        <v>110</v>
-      </c>
-      <c r="F72" t="s">
-        <v>108</v>
-      </c>
       <c r="G72" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H72" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I72" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J72"/>
       <c r="K72"/>
@@ -7821,37 +7897,38 @@
       <c r="BP72"/>
       <c r="BQ72"/>
       <c r="BR72"/>
-      <c r="BS72" t="n">
+      <c r="BS72"/>
+      <c r="BT72" t="n">
         <v>9.4325859499204</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B73" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C73" t="n">
         <v>2018</v>
       </c>
       <c r="D73" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="E73" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F73" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G73" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H73" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I73" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J73"/>
       <c r="K73"/>
@@ -7905,10 +7982,10 @@
       <c r="BG73"/>
       <c r="BH73"/>
       <c r="BI73"/>
-      <c r="BJ73" t="n">
+      <c r="BJ73"/>
+      <c r="BK73" t="n">
         <v>103.882563865</v>
       </c>
-      <c r="BK73"/>
       <c r="BL73"/>
       <c r="BM73"/>
       <c r="BN73"/>
@@ -7916,37 +7993,38 @@
       <c r="BP73"/>
       <c r="BQ73"/>
       <c r="BR73"/>
-      <c r="BS73" t="n">
+      <c r="BS73"/>
+      <c r="BT73" t="n">
         <v>103.882563865</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C74" t="n">
         <v>2018</v>
       </c>
       <c r="D74" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E74" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F74" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G74" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H74" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I74" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J74"/>
       <c r="K74"/>
@@ -8011,37 +8089,38 @@
       <c r="BP74"/>
       <c r="BQ74"/>
       <c r="BR74"/>
-      <c r="BS74" t="n">
+      <c r="BS74"/>
+      <c r="BT74" t="n">
         <v>2067.80890559</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B75" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C75" t="n">
         <v>2018</v>
       </c>
       <c r="D75" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E75" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F75" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G75" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H75" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I75" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J75"/>
       <c r="K75"/>
@@ -8106,37 +8185,38 @@
       <c r="BP75"/>
       <c r="BQ75"/>
       <c r="BR75"/>
-      <c r="BS75" t="n">
+      <c r="BS75"/>
+      <c r="BT75" t="n">
         <v>2.79216</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B76" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C76" t="n">
         <v>2018</v>
       </c>
       <c r="D76" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E76" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F76" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G76" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H76" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I76" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J76"/>
       <c r="K76"/>
@@ -8201,37 +8281,38 @@
       <c r="BP76"/>
       <c r="BQ76"/>
       <c r="BR76"/>
-      <c r="BS76" t="n">
+      <c r="BS76"/>
+      <c r="BT76" t="n">
         <v>26.77064</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B77" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C77" t="n">
         <v>2018</v>
       </c>
       <c r="D77" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E77" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F77" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G77" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H77" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I77" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J77"/>
       <c r="K77"/>
@@ -8294,37 +8375,38 @@
       <c r="BP77"/>
       <c r="BQ77"/>
       <c r="BR77"/>
-      <c r="BS77" t="n">
+      <c r="BS77"/>
+      <c r="BT77" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B78" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C78" t="n">
         <v>2018</v>
       </c>
       <c r="D78" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E78" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F78" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G78" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H78" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I78" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J78"/>
       <c r="K78"/>
@@ -8379,47 +8461,48 @@
       <c r="BH78"/>
       <c r="BI78"/>
       <c r="BJ78"/>
-      <c r="BK78" t="n">
+      <c r="BK78"/>
+      <c r="BL78" t="n">
         <v>539.6753417721</v>
       </c>
-      <c r="BL78"/>
       <c r="BM78"/>
       <c r="BN78"/>
       <c r="BO78"/>
       <c r="BP78"/>
       <c r="BQ78"/>
       <c r="BR78"/>
-      <c r="BS78" t="n">
+      <c r="BS78"/>
+      <c r="BT78" t="n">
         <v>539.6753417721</v>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B79" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C79" t="n">
         <v>2018</v>
       </c>
       <c r="D79" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E79" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F79" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G79" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H79" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="I79" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J79"/>
       <c r="K79"/>
@@ -8475,46 +8558,47 @@
       <c r="BI79"/>
       <c r="BJ79"/>
       <c r="BK79"/>
-      <c r="BL79" t="n">
+      <c r="BL79"/>
+      <c r="BM79" t="n">
         <v>8419.323442671</v>
       </c>
-      <c r="BM79"/>
       <c r="BN79"/>
       <c r="BO79"/>
       <c r="BP79"/>
       <c r="BQ79"/>
       <c r="BR79"/>
-      <c r="BS79" t="n">
+      <c r="BS79"/>
+      <c r="BT79" t="n">
         <v>8419.323442671</v>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B80" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C80" t="n">
         <v>2018</v>
       </c>
       <c r="D80" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E80" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F80" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G80" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H80" t="s">
+        <v>80</v>
+      </c>
+      <c r="I80" t="s">
         <v>79</v>
-      </c>
-      <c r="I80" t="s">
-        <v>78</v>
       </c>
       <c r="J80"/>
       <c r="K80"/>
@@ -8571,45 +8655,46 @@
       <c r="BJ80"/>
       <c r="BK80"/>
       <c r="BL80"/>
-      <c r="BM80" t="n">
+      <c r="BM80"/>
+      <c r="BN80" t="n">
         <v>0.570976315855</v>
       </c>
-      <c r="BN80"/>
       <c r="BO80"/>
       <c r="BP80"/>
       <c r="BQ80"/>
       <c r="BR80"/>
-      <c r="BS80" t="n">
+      <c r="BS80"/>
+      <c r="BT80" t="n">
         <v>0.570976315855</v>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B81" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C81" t="n">
         <v>2018</v>
       </c>
       <c r="D81" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E81" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F81" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G81" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H81" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I81" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J81"/>
       <c r="K81"/>
@@ -8666,45 +8751,46 @@
       <c r="BJ81"/>
       <c r="BK81"/>
       <c r="BL81"/>
-      <c r="BM81" t="n">
+      <c r="BM81"/>
+      <c r="BN81" t="n">
         <v>46.5497493</v>
       </c>
-      <c r="BN81"/>
       <c r="BO81"/>
       <c r="BP81"/>
       <c r="BQ81"/>
       <c r="BR81"/>
-      <c r="BS81" t="n">
+      <c r="BS81"/>
+      <c r="BT81" t="n">
         <v>46.5497493</v>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B82" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C82" t="n">
         <v>2018</v>
       </c>
       <c r="D82" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E82" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F82" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="G82" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H82" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I82" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J82"/>
       <c r="K82"/>
@@ -8761,45 +8847,46 @@
       <c r="BJ82"/>
       <c r="BK82"/>
       <c r="BL82"/>
-      <c r="BM82" t="n">
+      <c r="BM82"/>
+      <c r="BN82" t="n">
         <v>593.845</v>
       </c>
-      <c r="BN82"/>
       <c r="BO82"/>
       <c r="BP82"/>
       <c r="BQ82"/>
       <c r="BR82"/>
-      <c r="BS82" t="n">
+      <c r="BS82"/>
+      <c r="BT82" t="n">
         <v>593.845</v>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B83" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C83" t="n">
         <v>2018</v>
       </c>
       <c r="D83" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="E83" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F83" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G83" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H83" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I83" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J83"/>
       <c r="K83"/>
@@ -8880,37 +8967,38 @@
       <c r="BP83"/>
       <c r="BQ83"/>
       <c r="BR83"/>
-      <c r="BS83" t="n">
+      <c r="BS83"/>
+      <c r="BT83" t="n">
         <v>37062.62</v>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B84" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C84" t="n">
         <v>2018</v>
       </c>
       <c r="D84" t="s">
+        <v>131</v>
+      </c>
+      <c r="E84" t="s">
+        <v>132</v>
+      </c>
+      <c r="F84" t="s">
         <v>130</v>
       </c>
-      <c r="E84" t="s">
-        <v>131</v>
-      </c>
-      <c r="F84" t="s">
-        <v>129</v>
-      </c>
       <c r="G84" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H84" t="s">
+        <v>80</v>
+      </c>
+      <c r="I84" t="s">
         <v>79</v>
-      </c>
-      <c r="I84" t="s">
-        <v>78</v>
       </c>
       <c r="J84"/>
       <c r="K84"/>
@@ -8995,37 +9083,38 @@
       <c r="BP84"/>
       <c r="BQ84"/>
       <c r="BR84"/>
-      <c r="BS84" t="n">
+      <c r="BS84"/>
+      <c r="BT84" t="n">
         <v>1144.4555</v>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B85" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C85" t="n">
         <v>2018</v>
       </c>
       <c r="D85" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E85" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F85" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G85" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H85" t="s">
+        <v>80</v>
+      </c>
+      <c r="I85" t="s">
         <v>79</v>
-      </c>
-      <c r="I85" t="s">
-        <v>78</v>
       </c>
       <c r="J85"/>
       <c r="K85"/>
@@ -9110,37 +9199,38 @@
       <c r="BP85"/>
       <c r="BQ85"/>
       <c r="BR85"/>
-      <c r="BS85" t="n">
+      <c r="BS85"/>
+      <c r="BT85" t="n">
         <v>1150.0735</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B86" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C86" t="n">
         <v>2018</v>
       </c>
       <c r="D86" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E86" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F86" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="G86" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H86" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I86" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J86"/>
       <c r="K86"/>
@@ -9225,37 +9315,38 @@
       <c r="BP86"/>
       <c r="BQ86"/>
       <c r="BR86"/>
-      <c r="BS86" t="n">
+      <c r="BS86"/>
+      <c r="BT86" t="n">
         <v>1724.1224</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B87" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C87" t="n">
         <v>2018</v>
       </c>
       <c r="D87" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E87" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F87" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G87" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H87" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I87" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J87"/>
       <c r="K87"/>
@@ -9315,42 +9406,43 @@
       <c r="BM87"/>
       <c r="BN87"/>
       <c r="BO87"/>
-      <c r="BP87" t="n">
+      <c r="BP87"/>
+      <c r="BQ87" t="n">
         <v>0</v>
       </c>
-      <c r="BQ87"/>
       <c r="BR87"/>
-      <c r="BS87" t="n">
+      <c r="BS87"/>
+      <c r="BT87" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B88" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C88" t="n">
         <v>2018</v>
       </c>
       <c r="D88" t="s">
+        <v>140</v>
+      </c>
+      <c r="E88" t="s">
+        <v>141</v>
+      </c>
+      <c r="F88" t="s">
         <v>139</v>
       </c>
-      <c r="E88" t="s">
-        <v>140</v>
-      </c>
-      <c r="F88" t="s">
-        <v>138</v>
-      </c>
       <c r="G88" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H88" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I88" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J88"/>
       <c r="K88"/>
@@ -9410,42 +9502,43 @@
       <c r="BM88"/>
       <c r="BN88"/>
       <c r="BO88"/>
-      <c r="BP88" t="n">
+      <c r="BP88"/>
+      <c r="BQ88" t="n">
         <v>45991.2677</v>
       </c>
-      <c r="BQ88"/>
       <c r="BR88"/>
-      <c r="BS88" t="n">
+      <c r="BS88"/>
+      <c r="BT88" t="n">
         <v>45991.2677</v>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B89" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C89" t="n">
         <v>2018</v>
       </c>
       <c r="D89" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E89" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F89" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G89" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H89" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I89" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J89"/>
       <c r="K89"/>
@@ -9505,42 +9598,43 @@
       <c r="BM89"/>
       <c r="BN89"/>
       <c r="BO89"/>
-      <c r="BP89" t="n">
+      <c r="BP89"/>
+      <c r="BQ89" t="n">
         <v>0</v>
       </c>
-      <c r="BQ89"/>
       <c r="BR89"/>
-      <c r="BS89" t="n">
+      <c r="BS89"/>
+      <c r="BT89" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B90" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C90" t="n">
         <v>2018</v>
       </c>
       <c r="D90" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E90" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F90" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G90" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H90" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="I90" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J90"/>
       <c r="K90"/>
@@ -9600,42 +9694,43 @@
       <c r="BM90"/>
       <c r="BN90"/>
       <c r="BO90"/>
-      <c r="BP90" t="n">
+      <c r="BP90"/>
+      <c r="BQ90" t="n">
         <v>0</v>
       </c>
-      <c r="BQ90"/>
       <c r="BR90"/>
-      <c r="BS90" t="n">
+      <c r="BS90"/>
+      <c r="BT90" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B91" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C91" t="n">
         <v>2018</v>
       </c>
       <c r="D91" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E91" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="F91" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G91" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H91" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I91" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J91"/>
       <c r="K91"/>
@@ -9695,42 +9790,43 @@
       <c r="BM91"/>
       <c r="BN91"/>
       <c r="BO91"/>
-      <c r="BP91" t="n">
+      <c r="BP91"/>
+      <c r="BQ91" t="n">
         <v>0</v>
       </c>
-      <c r="BQ91"/>
       <c r="BR91"/>
-      <c r="BS91" t="n">
+      <c r="BS91"/>
+      <c r="BT91" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B92" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C92" t="n">
         <v>2018</v>
       </c>
       <c r="D92" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E92" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F92" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G92" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H92" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I92" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J92"/>
       <c r="K92"/>
@@ -9790,42 +9886,43 @@
       <c r="BM92"/>
       <c r="BN92"/>
       <c r="BO92"/>
-      <c r="BP92" t="n">
+      <c r="BP92"/>
+      <c r="BQ92" t="n">
         <v>36.4868</v>
       </c>
-      <c r="BQ92"/>
       <c r="BR92"/>
-      <c r="BS92" t="n">
+      <c r="BS92"/>
+      <c r="BT92" t="n">
         <v>36.4868</v>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B93" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C93" t="n">
         <v>2018</v>
       </c>
       <c r="D93" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="E93" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F93" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G93" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H93" t="s">
+        <v>80</v>
+      </c>
+      <c r="I93" t="s">
         <v>79</v>
-      </c>
-      <c r="I93" t="s">
-        <v>78</v>
       </c>
       <c r="J93"/>
       <c r="K93"/>
@@ -9885,42 +9982,43 @@
       <c r="BM93"/>
       <c r="BN93"/>
       <c r="BO93"/>
-      <c r="BP93" t="n">
+      <c r="BP93"/>
+      <c r="BQ93" t="n">
         <v>31.535</v>
       </c>
-      <c r="BQ93"/>
       <c r="BR93"/>
-      <c r="BS93" t="n">
+      <c r="BS93"/>
+      <c r="BT93" t="n">
         <v>31.535</v>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B94" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C94" t="n">
         <v>2018</v>
       </c>
       <c r="D94" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="E94" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F94" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G94" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H94" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I94" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J94" t="n">
         <v>1.5596</v>
@@ -9991,37 +10089,38 @@
       <c r="BP94"/>
       <c r="BQ94"/>
       <c r="BR94"/>
-      <c r="BS94" t="n">
+      <c r="BS94"/>
+      <c r="BT94" t="n">
         <v>669.4632</v>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B95" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C95" t="n">
         <v>2018</v>
       </c>
       <c r="D95" t="s">
+        <v>151</v>
+      </c>
+      <c r="E95" t="s">
+        <v>152</v>
+      </c>
+      <c r="F95" t="s">
         <v>150</v>
       </c>
-      <c r="E95" t="s">
-        <v>151</v>
-      </c>
-      <c r="F95" t="s">
-        <v>149</v>
-      </c>
       <c r="G95" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H95" t="s">
+        <v>80</v>
+      </c>
+      <c r="I95" t="s">
         <v>79</v>
-      </c>
-      <c r="I95" t="s">
-        <v>78</v>
       </c>
       <c r="J95" t="n">
         <v>0.371</v>
@@ -10092,37 +10191,38 @@
       <c r="BP95"/>
       <c r="BQ95"/>
       <c r="BR95"/>
-      <c r="BS95" t="n">
+      <c r="BS95"/>
+      <c r="BT95" t="n">
         <v>164.247</v>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B96" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C96" t="n">
         <v>2018</v>
       </c>
       <c r="D96" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E96" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F96" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G96" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H96" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I96" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J96"/>
       <c r="K96"/>
@@ -10183,41 +10283,42 @@
       <c r="BN96"/>
       <c r="BO96"/>
       <c r="BP96"/>
-      <c r="BQ96" t="n">
+      <c r="BQ96"/>
+      <c r="BR96" t="n">
         <v>1078.8708</v>
       </c>
-      <c r="BR96"/>
-      <c r="BS96" t="n">
+      <c r="BS96"/>
+      <c r="BT96" t="n">
         <v>1078.8708</v>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B97" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C97" t="n">
         <v>2018</v>
       </c>
       <c r="D97" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="E97" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F97" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G97" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H97" t="s">
+        <v>80</v>
+      </c>
+      <c r="I97" t="s">
         <v>79</v>
-      </c>
-      <c r="I97" t="s">
-        <v>78</v>
       </c>
       <c r="J97"/>
       <c r="K97"/>
@@ -10278,41 +10379,42 @@
       <c r="BN97"/>
       <c r="BO97"/>
       <c r="BP97"/>
-      <c r="BQ97" t="n">
+      <c r="BQ97"/>
+      <c r="BR97" t="n">
         <v>932.2965</v>
       </c>
-      <c r="BR97"/>
-      <c r="BS97" t="n">
+      <c r="BS97"/>
+      <c r="BT97" t="n">
         <v>932.2965</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B98" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C98" t="n">
         <v>2018</v>
       </c>
       <c r="D98" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="E98" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="F98" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G98" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H98" t="s">
+        <v>80</v>
+      </c>
+      <c r="I98" t="s">
         <v>79</v>
-      </c>
-      <c r="I98" t="s">
-        <v>78</v>
       </c>
       <c r="J98"/>
       <c r="K98"/>
@@ -10377,37 +10479,38 @@
       <c r="BP98"/>
       <c r="BQ98"/>
       <c r="BR98"/>
-      <c r="BS98" t="n">
+      <c r="BS98"/>
+      <c r="BT98" t="n">
         <v>2407.9225</v>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B99" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C99" t="n">
         <v>2018</v>
       </c>
       <c r="D99" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E99" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F99" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G99" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H99" t="s">
+        <v>80</v>
+      </c>
+      <c r="I99" t="s">
         <v>79</v>
-      </c>
-      <c r="I99" t="s">
-        <v>78</v>
       </c>
       <c r="J99"/>
       <c r="K99"/>
@@ -10468,41 +10571,42 @@
       <c r="BN99"/>
       <c r="BO99"/>
       <c r="BP99"/>
-      <c r="BQ99" t="n">
+      <c r="BQ99"/>
+      <c r="BR99" t="n">
         <v>0</v>
       </c>
-      <c r="BR99"/>
-      <c r="BS99" t="n">
+      <c r="BS99"/>
+      <c r="BT99" t="n">
         <v>0</v>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B100" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C100" t="n">
         <v>2018</v>
       </c>
       <c r="D100" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E100" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F100" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G100" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H100" t="s">
+        <v>80</v>
+      </c>
+      <c r="I100" t="s">
         <v>79</v>
-      </c>
-      <c r="I100" t="s">
-        <v>78</v>
       </c>
       <c r="J100"/>
       <c r="K100"/>
@@ -10587,37 +10691,38 @@
       <c r="BP100"/>
       <c r="BQ100"/>
       <c r="BR100"/>
-      <c r="BS100" t="n">
+      <c r="BS100"/>
+      <c r="BT100" t="n">
         <v>19405.42</v>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B101" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C101" t="n">
         <v>2018</v>
       </c>
       <c r="D101" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E101" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F101" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G101" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H101" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I101" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J101"/>
       <c r="K101"/>
@@ -10682,37 +10787,38 @@
       <c r="BP101"/>
       <c r="BQ101"/>
       <c r="BR101"/>
-      <c r="BS101" t="n">
+      <c r="BS101"/>
+      <c r="BT101" t="n">
         <v>12462.576</v>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B102" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C102" t="n">
         <v>2018</v>
       </c>
       <c r="D102" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E102" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F102" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G102" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H102" t="s">
+        <v>80</v>
+      </c>
+      <c r="I102" t="s">
         <v>79</v>
-      </c>
-      <c r="I102" t="s">
-        <v>78</v>
       </c>
       <c r="J102" t="n">
         <v>6.307</v>
@@ -10789,37 +10895,38 @@
       <c r="BP102"/>
       <c r="BQ102"/>
       <c r="BR102"/>
-      <c r="BS102" t="n">
+      <c r="BS102"/>
+      <c r="BT102" t="n">
         <v>2152.966</v>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B103" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C103" t="n">
         <v>2018</v>
       </c>
       <c r="D103" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E103" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F103" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G103" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H103" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I103" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J103"/>
       <c r="K103"/>
@@ -10884,37 +10991,38 @@
       <c r="BP103"/>
       <c r="BQ103"/>
       <c r="BR103"/>
-      <c r="BS103" t="n">
+      <c r="BS103"/>
+      <c r="BT103" t="n">
         <v>13585.7316032528</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B104" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C104" t="n">
         <v>2018</v>
       </c>
       <c r="D104" t="s">
+        <v>168</v>
+      </c>
+      <c r="E104" t="s">
+        <v>169</v>
+      </c>
+      <c r="F104" t="s">
         <v>167</v>
       </c>
-      <c r="E104" t="s">
-        <v>168</v>
-      </c>
-      <c r="F104" t="s">
-        <v>166</v>
-      </c>
       <c r="G104" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H104" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I104" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J104"/>
       <c r="K104"/>
@@ -10979,37 +11087,38 @@
       <c r="BP104"/>
       <c r="BQ104"/>
       <c r="BR104"/>
-      <c r="BS104" t="n">
+      <c r="BS104"/>
+      <c r="BT104" t="n">
         <v>151.4856</v>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B105" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C105" t="n">
         <v>2018</v>
       </c>
       <c r="D105" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E105" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F105" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G105" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H105" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I105" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J105"/>
       <c r="K105"/>
@@ -11074,37 +11183,38 @@
       <c r="BP105"/>
       <c r="BQ105"/>
       <c r="BR105"/>
-      <c r="BS105" t="n">
+      <c r="BS105"/>
+      <c r="BT105" t="n">
         <v>12013.0905753432</v>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B106" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C106" t="n">
         <v>2018</v>
       </c>
       <c r="D106" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E106" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F106" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G106" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H106" t="s">
+        <v>80</v>
+      </c>
+      <c r="I106" t="s">
         <v>79</v>
-      </c>
-      <c r="I106" t="s">
-        <v>78</v>
       </c>
       <c r="J106"/>
       <c r="K106"/>
@@ -11169,37 +11279,38 @@
       <c r="BP106"/>
       <c r="BQ106"/>
       <c r="BR106"/>
-      <c r="BS106" t="n">
+      <c r="BS106"/>
+      <c r="BT106" t="n">
         <v>1955.86029935237</v>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B107" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C107" t="n">
         <v>2018</v>
       </c>
       <c r="D107" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E107" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="F107" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G107" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="H107" t="s">
+        <v>80</v>
+      </c>
+      <c r="I107" t="s">
         <v>79</v>
-      </c>
-      <c r="I107" t="s">
-        <v>78</v>
       </c>
       <c r="J107"/>
       <c r="K107"/>
@@ -11257,14 +11368,15 @@
       <c r="BK107"/>
       <c r="BL107"/>
       <c r="BM107"/>
-      <c r="BN107" t="n">
+      <c r="BN107"/>
+      <c r="BO107" t="n">
         <v>3556.36366010438</v>
       </c>
-      <c r="BO107"/>
       <c r="BP107"/>
       <c r="BQ107"/>
       <c r="BR107"/>
-      <c r="BS107" t="n">
+      <c r="BS107"/>
+      <c r="BT107" t="n">
         <v>3556.36366010438</v>
       </c>
     </row>
